--- a/Sprint1 - dev2 - Med Clinica/ModelagemFisica_MedClinica.xlsx
+++ b/Sprint1 - dev2 - Med Clinica/ModelagemFisica_MedClinica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49393984808\Documents\Sprint1 - dev2 - Med Clinica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49393984808\Documents\dev2_sprint1\Sprint1 - dev2 - Med Clinica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50143E49-7B21-47AF-8F4E-3C77E473C336}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C108BFB2-FDB3-4187-A2CE-A3D6213007B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4" xr2:uid="{2E6474F5-FC0E-4351-BD8A-6F3F5A0013B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="2" activeTab="3" xr2:uid="{2E6474F5-FC0E-4351-BD8A-6F3F5A0013B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Clínica" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -225,9 +225,6 @@
     <t>mariana@outlook.com</t>
   </si>
   <si>
-    <t>adm@gmail.com.br</t>
-  </si>
-  <si>
     <t>ricardo123</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>54366362-5</t>
   </si>
   <si>
-    <t>t32544444-1</t>
-  </si>
-  <si>
     <t>54566266-7</t>
   </si>
   <si>
@@ -370,20 +364,22 @@
   </si>
   <si>
     <t>TipoUsuario</t>
+  </si>
+  <si>
+    <t>adm@spmedicagroup.com.br</t>
+  </si>
+  <si>
+    <t>Helena Souza</t>
+  </si>
+  <si>
+    <t>432544444-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +523,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -567,7 +563,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
@@ -576,10 +572,10 @@
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -920,7 +916,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -962,7 +958,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,8 +972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="15" t="s">
         <v>49</v>
       </c>
@@ -1040,8 +1036,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>47</v>
+      <c r="C5" s="35" t="s">
+        <v>112</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
@@ -1063,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1887204A-D092-4B40-ADC3-A049F4A6F082}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -1232,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CBCEBD-F807-4322-9DE4-0AD25F645FCD}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1279,7 @@
         <v>43850.625</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1300,7 +1296,7 @@
         <v>43836.416666666664</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,7 +1313,7 @@
         <v>43868.458333333336</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,7 +1330,7 @@
         <v>43137.416666666664</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1347,7 @@
         <v>43503.458854166667</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,7 +1364,7 @@
         <v>43898.625</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1385,7 +1381,7 @@
         <v>43899.458854166667</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1398,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B61D50D-5404-457C-9240-E2E1204E339A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1458,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="26">
         <v>94839859000</v>
@@ -1470,10 +1466,10 @@
         <v>30602</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="26">
         <v>73556944057</v>
@@ -1496,10 +1492,10 @@
         <v>37095</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1510,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="26">
         <v>16839338002</v>
@@ -1522,10 +1518,10 @@
         <v>28773</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1536,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="26">
         <v>14332654765</v>
@@ -1548,10 +1544,10 @@
         <v>31333</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1561,11 +1557,11 @@
       <c r="B7" s="26">
         <v>9</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>80</v>
+      <c r="C7" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E7" s="26">
         <v>91305348010</v>
@@ -1574,10 +1570,10 @@
         <v>27633</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1588,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" s="26">
         <v>79799299004</v>
@@ -1600,10 +1596,10 @@
         <v>26379</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1614,10 +1610,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="26">
         <v>13771913039</v>
@@ -1626,10 +1622,10 @@
         <v>43164</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1638,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1681,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1709,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,7 +1737,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,7 +1751,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1765,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,7 +1779,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1793,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +1807,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,7 +1821,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1833,6 +1829,7 @@
     <hyperlink ref="C6" r:id="rId1" xr:uid="{3FE62512-09F5-4FCF-AD71-59E742B6F2B6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1853,7 +1850,7 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1885,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
